--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,34 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\source\repos\jonatha1992\Trabajo_final_SIGEHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB0C8A25-7428-4501-8DD6-57A7A0FFD9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6323E34-BE51-49CE-9AAA-AFF7E4A0EFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{5D60948D-1C45-460B-9897-0D78FC4C9B68}"/>
+    <workbookView minimized="1" xWindow="-24450" yWindow="2400" windowWidth="19215" windowHeight="9990" xr2:uid="{5D60948D-1C45-460B-9897-0D78FC4C9B68}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>usuario</t>
   </si>
@@ -52,21 +43,6 @@
     <t>permiso</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>instructor</t>
-  </si>
-  <si>
-    <t>supervisor</t>
-  </si>
-  <si>
-    <t>menu entregas</t>
-  </si>
-  <si>
-    <t>menu administracion</t>
-  </si>
-  <si>
     <t>nombre</t>
   </si>
   <si>
@@ -76,30 +52,12 @@
     <t>Crear Entrega</t>
   </si>
   <si>
-    <t>Borrar Entrega</t>
-  </si>
-  <si>
     <t>Eliminar Entrega</t>
   </si>
   <si>
-    <t>menu Hallazgos</t>
-  </si>
-  <si>
     <t>es permiso</t>
   </si>
   <si>
-    <t>id Padre</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>menu admintracion</t>
-  </si>
-  <si>
-    <t>menu hallazgos</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
@@ -112,14 +70,98 @@
     <t>permiso_padre</t>
   </si>
   <si>
-    <t>Borrar Eentrega</t>
+    <t>Usuario_permiso</t>
+  </si>
+  <si>
+    <t>maria</t>
+  </si>
+  <si>
+    <t>Modificar Hallazgo</t>
+  </si>
+  <si>
+    <t>Modifcar Entrega</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>Rol admin</t>
+  </si>
+  <si>
+    <t>Rol instructor</t>
+  </si>
+  <si>
+    <t>Rol supervisor</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>IdPermiso</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Entrega</t>
+  </si>
+  <si>
+    <t>Administracion</t>
+  </si>
+  <si>
+    <t>Hallazgos</t>
+  </si>
+  <si>
+    <t>Usuarios</t>
+  </si>
+  <si>
+    <t>CrearHallazgo</t>
+  </si>
+  <si>
+    <t>GestionarHallazgo</t>
+  </si>
+  <si>
+    <t>GestionPermisos</t>
+  </si>
+  <si>
+    <t>IdUsuario</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Rol</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>permisos</t>
+  </si>
+  <si>
+    <t>nombremenu</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre </t>
+  </si>
+  <si>
+    <t>idrol</t>
+  </si>
+  <si>
+    <t>padre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,16 +169,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -170,17 +254,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,236 +662,421 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A49652-B204-47E4-952D-882AFA72B82C}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O12" sqref="N12:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.46875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.703125" customWidth="1"/>
     <col min="2" max="2" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.64453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
     <col min="5" max="5" width="12.8203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.64453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.8203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="D1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="I1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="M1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>18</v>
+      <c r="O2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:F12"/>
+  <mergeCells count="4">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB8106B-058C-4C4B-861D-FF15AC3F1AF1}">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="17.76171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5859375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.703125" customWidth="1"/>
+    <col min="6" max="6" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.87890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.76171875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.76171875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.41015625" customWidth="1"/>
+    <col min="13" max="13" width="14.76171875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
+      <c r="K1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
+        <v>11</v>
+      </c>
+      <c r="L3" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="1">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1">
+        <v>13</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="1">
+        <v>13</v>
+      </c>
+      <c r="L7" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="2">
+        <v>11</v>
+      </c>
+      <c r="L8" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="23"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="G11" s="1">
+        <v>9</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="G13" s="1">
+        <v>11</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="G14" s="1">
+        <v>12</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="G15" s="1">
+        <v>13</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="G16" s="1">
+        <v>14</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.5">
+      <c r="F23" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\source\repos\jonatha1992\Trabajo_final_SIGEHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6323E34-BE51-49CE-9AAA-AFF7E4A0EFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6B17B2-56CD-4F05-8277-FB42F17F28C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-24450" yWindow="2400" windowWidth="19215" windowHeight="9990" xr2:uid="{5D60948D-1C45-460B-9897-0D78FC4C9B68}"/>
+    <workbookView minimized="1" xWindow="-23640" yWindow="2895" windowWidth="17280" windowHeight="8910" activeTab="1" xr2:uid="{5D60948D-1C45-460B-9897-0D78FC4C9B68}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="44">
   <si>
     <t>usuario</t>
   </si>
@@ -40,9 +40,6 @@
     <t>jose</t>
   </si>
   <si>
-    <t>permiso</t>
-  </si>
-  <si>
     <t>nombre</t>
   </si>
   <si>
@@ -64,12 +61,6 @@
     <t>permiso_permiso</t>
   </si>
   <si>
-    <t>permiso_hijo</t>
-  </si>
-  <si>
-    <t>permiso_padre</t>
-  </si>
-  <si>
     <t>Usuario_permiso</t>
   </si>
   <si>
@@ -82,27 +73,6 @@
     <t>Modifcar Entrega</t>
   </si>
   <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>Rol admin</t>
-  </si>
-  <si>
-    <t>Rol instructor</t>
-  </si>
-  <si>
-    <t>Rol supervisor</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>IdPermiso</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Entrega</t>
   </si>
   <si>
@@ -124,37 +94,70 @@
     <t>GestionPermisos</t>
   </si>
   <si>
-    <t>IdUsuario</t>
-  </si>
-  <si>
     <t>Usuario</t>
   </si>
   <si>
-    <t>Rol</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>permisos</t>
   </si>
   <si>
-    <t>nombremenu</t>
-  </si>
-  <si>
-    <t>visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id </t>
-  </si>
-  <si>
     <t xml:space="preserve">nombre </t>
   </si>
   <si>
-    <t>idrol</t>
-  </si>
-  <si>
-    <t>padre</t>
+    <t xml:space="preserve">jonathan </t>
+  </si>
+  <si>
+    <t>nicolas</t>
+  </si>
+  <si>
+    <t>rol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">administrador </t>
+  </si>
+  <si>
+    <t>supervisor</t>
+  </si>
+  <si>
+    <t>instructor</t>
+  </si>
+  <si>
+    <t>adminstrador</t>
+  </si>
+  <si>
+    <t>usuario_permisos</t>
+  </si>
+  <si>
+    <t>rol_permisos</t>
+  </si>
+  <si>
+    <t>administrador</t>
+  </si>
+  <si>
+    <t>GestionarUsuario</t>
+  </si>
+  <si>
+    <t>GestionarPermiso y Rol</t>
+  </si>
+  <si>
+    <t>Back up</t>
+  </si>
+  <si>
+    <t>Bitacora</t>
+  </si>
+  <si>
+    <t>CrearEntrega</t>
+  </si>
+  <si>
+    <t>GestionarEntrega</t>
+  </si>
+  <si>
+    <t>Reporte</t>
+  </si>
+  <si>
+    <t>reporte</t>
+  </si>
+  <si>
+    <t>Permiso</t>
   </si>
 </sst>
 </file>
@@ -220,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -303,51 +306,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,89 +677,237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A49652-B204-47E4-952D-882AFA72B82C}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O12" sqref="N12:O12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.703125" customWidth="1"/>
-    <col min="2" max="2" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="5" max="5" width="12.8203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.64453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.8203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.41015625" customWidth="1"/>
+    <col min="3" max="3" width="11.9453125" customWidth="1"/>
+    <col min="4" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="12.83984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.62890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1015625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.3125" customWidth="1"/>
+    <col min="11" max="11" width="19.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="D1" s="18" t="s">
+      <c r="K2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="I1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="M1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="J10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H12" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H14" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" t="s">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -753,328 +916,339 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB8106B-058C-4C4B-861D-FF15AC3F1AF1}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="17.76171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5859375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.703125" customWidth="1"/>
-    <col min="6" max="6" width="11.9375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.87890625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.76171875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.76171875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.41015625" customWidth="1"/>
-    <col min="13" max="13" width="14.76171875" customWidth="1"/>
+    <col min="1" max="1" width="17.734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.20703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.68359375" customWidth="1"/>
+    <col min="5" max="5" width="11.9453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.89453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.41796875" customWidth="1"/>
+    <col min="12" max="12" width="14.734375" customWidth="1"/>
+    <col min="13" max="13" width="20.05078125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="21" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="L1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15"/>
-      <c r="K1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A3">
+      <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="L13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1">
-        <v>11</v>
-      </c>
-      <c r="L3" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A4">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="1">
-        <v>12</v>
-      </c>
-      <c r="L4" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="1">
-        <v>12</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="1">
-        <v>13</v>
-      </c>
-      <c r="L6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G7" s="1">
-        <v>5</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="1">
-        <v>13</v>
-      </c>
-      <c r="L7" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="G8" s="1">
-        <v>6</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="2">
-        <v>11</v>
-      </c>
-      <c r="L8" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="G9" s="1">
-        <v>7</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="23"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="G10" s="1">
-        <v>8</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="G11" s="1">
-        <v>9</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="G12" s="1">
-        <v>10</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="G13" s="1">
-        <v>11</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="G14" s="1">
-        <v>12</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="G15" s="1">
-        <v>13</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="G16" s="1">
-        <v>14</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.5">
-      <c r="F23" s="3"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="G1:I1"/>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
